--- a/chessgame.xlsx
+++ b/chessgame.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -22,114 +22,114 @@
     <t>Value</t>
   </si>
   <si>
+    <t>Moves</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
+    <t>CCRL 40/15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> f4  d5  </t>
+  </si>
+  <si>
     <t>Site</t>
   </si>
   <si>
+    <t>CCRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> b3  Bg4  </t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
+    <t>2022.04.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bb2 Nc6  </t>
+  </si>
+  <si>
     <t>Round</t>
   </si>
   <si>
+    <t>820.1.525</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> h3  Bh5  </t>
+  </si>
+  <si>
     <t>White</t>
   </si>
   <si>
+    <t>Stockfish 15 64-bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> g4 Bg6  </t>
+  </si>
+  <si>
     <t>Black</t>
   </si>
   <si>
+    <t>Arasan 23.3 64-bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nf3  h5  </t>
+  </si>
+  <si>
     <t>Result</t>
   </si>
   <si>
+    <t>1-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> g5 e6  </t>
+  </si>
+  <si>
     <t>ECO</t>
   </si>
   <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> e3  Nge7  </t>
+  </si>
+  <si>
     <t>Opening</t>
   </si>
   <si>
+    <t>Bird's opening</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bb5 a6  </t>
+  </si>
+  <si>
     <t>PlyCount</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bxc6+  Nxc6 </t>
+  </si>
+  <si>
     <t>WhiteElo</t>
   </si>
   <si>
+    <t>3511</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> d3  Qe7  </t>
+  </si>
+  <si>
     <t>BlackElo</t>
   </si>
   <si>
-    <t>CCRL 40/15</t>
-  </si>
-  <si>
-    <t>CCRL</t>
-  </si>
-  <si>
-    <t>2022.04.20</t>
-  </si>
-  <si>
-    <t>820.1.525</t>
-  </si>
-  <si>
-    <t>Stockfish 15 64-bit</t>
-  </si>
-  <si>
-    <t>Arasan 23.3 64-bit</t>
-  </si>
-  <si>
-    <t>1-0</t>
-  </si>
-  <si>
-    <t>A03</t>
-  </si>
-  <si>
-    <t>Bird's opening</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>3511</t>
-  </si>
-  <si>
     <t>3333</t>
   </si>
   <si>
-    <t>Moves</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> f4  d5  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> b3  Bg4  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bb2 Nc6  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> h3  Bh5  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> g4 Bg6  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nf3  h5  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> g5 e6  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> e3  Nge7  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bb5 a6  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bxc6+  Nxc6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> d3  Qe7  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Qe2  O-O-O  </t>
   </si>
   <si>
@@ -244,14 +244,15 @@
     <t xml:space="preserve"> h6  Bxg6  </t>
   </si>
   <si>
-    <t xml:space="preserve"> fxg6 1-0[Event "CCRL 40/15"]</t>
+    <t xml:space="preserve"> fxg6 1-0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,10 +263,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -286,16 +286,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -303,17 +303,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="4">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -322,10 +333,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -363,69 +374,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -449,54 +462,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -506,7 +518,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -515,7 +527,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -524,7 +536,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -532,10 +544,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -564,7 +576,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -577,13 +589,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -601,14 +612,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="13.005" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,328 +635,404 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+      <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="C14" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="C15" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="C16" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="3:3">
-      <c r="C28" t="s">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
-      <c r="C29" t="s">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
-      <c r="C31" t="s">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="3:3">
-      <c r="C32" t="s">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
-      <c r="C33" t="s">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
-      <c r="C34" t="s">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
-      <c r="C35" t="s">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
-      <c r="C36" t="s">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
-      <c r="C37" t="s">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
-      <c r="C38" t="s">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
-      <c r="C39" t="s">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="3:3">
-      <c r="C40" t="s">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="3:3">
-      <c r="C41" t="s">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="3:3">
-      <c r="C42" t="s">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
-      <c r="C43" t="s">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="3:3">
-      <c r="C44" t="s">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="3:3">
-      <c r="C45" t="s">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="3:3">
-      <c r="C46" t="s">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="3:3">
-      <c r="C47" t="s">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="3:3">
-      <c r="C48" t="s">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
-      <c r="C49" t="s">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
-      <c r="C50" t="s">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="3:3">
-      <c r="C51" t="s">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
         <v>76</v>
       </c>
     </row>

--- a/chessgame.xlsx
+++ b/chessgame.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -22,112 +22,112 @@
     <t>Value</t>
   </si>
   <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>ECO</t>
+  </si>
+  <si>
+    <t>Opening</t>
+  </si>
+  <si>
+    <t>PlyCount</t>
+  </si>
+  <si>
+    <t>WhiteElo</t>
+  </si>
+  <si>
+    <t>BlackElo</t>
+  </si>
+  <si>
+    <t>CCRL 40/15</t>
+  </si>
+  <si>
+    <t>CCRL</t>
+  </si>
+  <si>
+    <t>2022.04.20</t>
+  </si>
+  <si>
+    <t>820.1.525</t>
+  </si>
+  <si>
+    <t>Stockfish 15 64-bit</t>
+  </si>
+  <si>
+    <t>Arasan 23.3 64-bit</t>
+  </si>
+  <si>
+    <t>1-0</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>Bird's opening</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>3511</t>
+  </si>
+  <si>
+    <t>3333</t>
+  </si>
+  <si>
     <t>Moves</t>
   </si>
   <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>CCRL 40/15</t>
-  </si>
-  <si>
     <t xml:space="preserve"> f4  d5  </t>
   </si>
   <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>CCRL</t>
-  </si>
-  <si>
     <t xml:space="preserve"> b3  Bg4  </t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2022.04.20</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Bb2 Nc6  </t>
   </si>
   <si>
-    <t>Round</t>
-  </si>
-  <si>
-    <t>820.1.525</t>
-  </si>
-  <si>
     <t xml:space="preserve"> h3  Bh5  </t>
   </si>
   <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Stockfish 15 64-bit</t>
-  </si>
-  <si>
     <t xml:space="preserve"> g4 Bg6  </t>
   </si>
   <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Arasan 23.3 64-bit</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Nf3  h5  </t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>1-0</t>
-  </si>
-  <si>
     <t xml:space="preserve"> g5 e6  </t>
   </si>
   <si>
-    <t>ECO</t>
-  </si>
-  <si>
-    <t>A03</t>
-  </si>
-  <si>
     <t xml:space="preserve"> e3  Nge7  </t>
   </si>
   <si>
-    <t>Opening</t>
-  </si>
-  <si>
-    <t>Bird's opening</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Bb5 a6  </t>
   </si>
   <si>
-    <t>PlyCount</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Bxc6+  Nxc6 </t>
   </si>
   <si>
-    <t>WhiteElo</t>
-  </si>
-  <si>
-    <t>3511</t>
-  </si>
-  <si>
     <t xml:space="preserve"> d3  Qe7  </t>
-  </si>
-  <si>
-    <t>BlackElo</t>
-  </si>
-  <si>
-    <t>3333</t>
   </si>
   <si>
     <t xml:space="preserve">Qe2  O-O-O  </t>
@@ -250,9 +250,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,9 +262,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -286,16 +286,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -303,28 +303,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -333,10 +322,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -374,71 +363,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,53 +449,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -518,7 +506,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -527,7 +515,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -536,7 +524,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -544,10 +532,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -576,7 +564,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -589,12 +577,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -612,22 +601,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.005" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,404 +616,328 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="2" t="s">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="2" t="s">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="2" t="s">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
+    <row r="14" spans="1:3">
+      <c r="C14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
+    <row r="15" spans="1:3">
+      <c r="C15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+    <row r="16" spans="1:3">
+      <c r="C16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
+    <row r="36" spans="3:3">
+      <c r="C36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2" t="s">
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2" t="s">
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2" t="s">
+    <row r="39" spans="3:3">
+      <c r="C39" t="s">
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2" t="s">
+    <row r="40" spans="3:3">
+      <c r="C40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2" t="s">
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2" t="s">
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2" t="s">
+    <row r="43" spans="3:3">
+      <c r="C43" t="s">
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2" t="s">
+    <row r="44" spans="3:3">
+      <c r="C44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2" t="s">
+    <row r="45" spans="3:3">
+      <c r="C45" t="s">
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2" t="s">
+    <row r="46" spans="3:3">
+      <c r="C46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2" t="s">
+    <row r="47" spans="3:3">
+      <c r="C47" t="s">
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2" t="s">
+    <row r="48" spans="3:3">
+      <c r="C48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2" t="s">
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2" t="s">
+    <row r="50" spans="3:3">
+      <c r="C50" t="s">
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2" t="s">
+    <row r="51" spans="3:3">
+      <c r="C51" t="s">
         <v>76</v>
       </c>
     </row>
